--- a/Code/Results/Cases/Case_0_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.960487092524848</v>
+        <v>1.022192629141769</v>
       </c>
       <c r="D2">
-        <v>0.9683306286423777</v>
+        <v>1.031106801433389</v>
       </c>
       <c r="E2">
-        <v>0.9724534925835231</v>
+        <v>1.022973820019877</v>
       </c>
       <c r="F2">
-        <v>0.9554411600657917</v>
+        <v>1.037112412676056</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032109792327945</v>
+        <v>1.024935622675778</v>
       </c>
       <c r="J2">
-        <v>0.9839174637790515</v>
+        <v>1.027379847277369</v>
       </c>
       <c r="K2">
-        <v>0.980249540031389</v>
+        <v>1.033915877480283</v>
       </c>
       <c r="L2">
-        <v>0.9843104183985232</v>
+        <v>1.025806623784877</v>
       </c>
       <c r="M2">
-        <v>0.9675582712130913</v>
+        <v>1.039904227029816</v>
       </c>
       <c r="N2">
-        <v>0.9988760679091908</v>
+        <v>1.013190409921538</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9689828453495767</v>
+        <v>1.023530341893124</v>
       </c>
       <c r="D3">
-        <v>0.9774830483188215</v>
+        <v>1.032476280520569</v>
       </c>
       <c r="E3">
-        <v>0.9794347431162299</v>
+        <v>1.024116507424092</v>
       </c>
       <c r="F3">
-        <v>0.9682740487026892</v>
+        <v>1.038794557677048</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03593492270235</v>
+        <v>1.025132670580908</v>
       </c>
       <c r="J3">
-        <v>0.9903563300255367</v>
+        <v>1.02835348688739</v>
       </c>
       <c r="K3">
-        <v>0.988412382235517</v>
+        <v>1.035092346893526</v>
       </c>
       <c r="L3">
-        <v>0.9903377032957575</v>
+        <v>1.026755174863784</v>
       </c>
       <c r="M3">
-        <v>0.9793296350242614</v>
+        <v>1.041393803183955</v>
       </c>
       <c r="N3">
-        <v>1.000994981728073</v>
+        <v>1.013510772564229</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9741506652331757</v>
+        <v>1.024389037690743</v>
       </c>
       <c r="D4">
-        <v>0.9830072934043593</v>
+        <v>1.033352565983874</v>
       </c>
       <c r="E4">
-        <v>0.9836849864170338</v>
+        <v>1.024850348983022</v>
       </c>
       <c r="F4">
-        <v>0.9759316186458431</v>
+        <v>1.039864524779623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038151943118532</v>
+        <v>1.025249844857602</v>
       </c>
       <c r="J4">
-        <v>0.9942395376854887</v>
+        <v>1.028976228645368</v>
       </c>
       <c r="K4">
-        <v>0.9933152262675257</v>
+        <v>1.035843244259318</v>
       </c>
       <c r="L4">
-        <v>0.993984390998644</v>
+        <v>1.027362840909987</v>
       </c>
       <c r="M4">
-        <v>0.9863294779659586</v>
+        <v>1.042338755614989</v>
       </c>
       <c r="N4">
-        <v>1.00227303166624</v>
+        <v>1.013715665731523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9762538652990637</v>
+        <v>1.024748402945398</v>
       </c>
       <c r="D5">
-        <v>0.9852462773764971</v>
+        <v>1.033718620325351</v>
       </c>
       <c r="E5">
-        <v>0.9854156675179292</v>
+        <v>1.025157542544762</v>
       </c>
       <c r="F5">
-        <v>0.9790159166722288</v>
+        <v>1.040309951001723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039029363596156</v>
+        <v>1.025296640014843</v>
       </c>
       <c r="J5">
-        <v>0.9958125998028254</v>
+        <v>1.029236306366369</v>
       </c>
       <c r="K5">
-        <v>0.9952969265487205</v>
+        <v>1.03615646477105</v>
       </c>
       <c r="L5">
-        <v>0.9954642491955589</v>
+        <v>1.027616856329176</v>
       </c>
       <c r="M5">
-        <v>0.9891432295860528</v>
+        <v>1.042731524861771</v>
       </c>
       <c r="N5">
-        <v>1.0027907897146</v>
+        <v>1.013801233196304</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9766031716649594</v>
+        <v>1.02480864690146</v>
       </c>
       <c r="D6">
-        <v>0.9856176148735701</v>
+        <v>1.033779946148541</v>
       </c>
       <c r="E6">
-        <v>0.9857031593336353</v>
+        <v>1.0252090451266</v>
       </c>
       <c r="F6">
-        <v>0.9795263571108146</v>
+        <v>1.040384483809439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039173659796262</v>
+        <v>1.025304352792473</v>
       </c>
       <c r="J6">
-        <v>0.9960734448562968</v>
+        <v>1.02927987400535</v>
       </c>
       <c r="K6">
-        <v>0.9956252822090257</v>
+        <v>1.036208912443006</v>
       </c>
       <c r="L6">
-        <v>0.995709787939105</v>
+        <v>1.027659422189342</v>
       </c>
       <c r="M6">
-        <v>0.9896085683700563</v>
+        <v>1.04279721034195</v>
       </c>
       <c r="N6">
-        <v>1.002876645749691</v>
+        <v>1.013815567104619</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9741790298319674</v>
+        <v>1.024393845927135</v>
       </c>
       <c r="D7">
-        <v>0.983037524952263</v>
+        <v>1.033357466367222</v>
       </c>
       <c r="E7">
-        <v>0.9837083233951386</v>
+        <v>1.024854458858047</v>
       </c>
       <c r="F7">
-        <v>0.975973338858086</v>
+        <v>1.039870493776747</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038163873678482</v>
+        <v>1.025250479812058</v>
       </c>
       <c r="J7">
-        <v>0.9942607809945665</v>
+        <v>1.028979710563991</v>
       </c>
       <c r="K7">
-        <v>0.993342005119095</v>
+        <v>1.035847439150586</v>
       </c>
       <c r="L7">
-        <v>0.9940043654684514</v>
+        <v>1.027366240743488</v>
       </c>
       <c r="M7">
-        <v>0.9863675608706715</v>
+        <v>1.042344021406739</v>
       </c>
       <c r="N7">
-        <v>1.002280023592243</v>
+        <v>1.013716811318993</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9634330224602524</v>
+        <v>1.022646155185633</v>
       </c>
       <c r="D8">
-        <v>0.9715142887120851</v>
+        <v>1.031571679743152</v>
       </c>
       <c r="E8">
-        <v>0.9748735038254751</v>
+        <v>1.023361156488123</v>
       </c>
       <c r="F8">
-        <v>0.9599254875149531</v>
+        <v>1.037684755112653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033460904717008</v>
+        <v>1.025004359667409</v>
       </c>
       <c r="J8">
-        <v>0.9861578769823677</v>
+        <v>1.027710408898115</v>
       </c>
       <c r="K8">
-        <v>0.9830944609658443</v>
+        <v>1.034315629477689</v>
       </c>
       <c r="L8">
-        <v>0.9864049407420121</v>
+        <v>1.026128465696659</v>
       </c>
       <c r="M8">
-        <v>0.9716771215510476</v>
+        <v>1.040411573120449</v>
       </c>
       <c r="N8">
-        <v>0.9996133066044589</v>
+        <v>1.013299179010472</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9413630894703076</v>
+        <v>1.019512751126477</v>
       </c>
       <c r="D9">
-        <v>0.9473935516366644</v>
+        <v>1.028348222293584</v>
       </c>
       <c r="E9">
-        <v>0.9567568986730386</v>
+        <v>1.020686460847832</v>
       </c>
       <c r="F9">
-        <v>0.9254123413499704</v>
+        <v>1.033689666529277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022726985318916</v>
+        <v>1.024491147364305</v>
       </c>
       <c r="J9">
-        <v>0.9691710749449676</v>
+        <v>1.025417248903161</v>
       </c>
       <c r="K9">
-        <v>0.9614019782748455</v>
+        <v>1.031535964875113</v>
       </c>
       <c r="L9">
-        <v>0.9705928222688944</v>
+        <v>1.023899816157457</v>
       </c>
       <c r="M9">
-        <v>0.9398437626749494</v>
+        <v>1.036859799376705</v>
       </c>
       <c r="N9">
-        <v>0.994024884445015</v>
+        <v>1.012544583507632</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9231083812696173</v>
+        <v>1.01738626277433</v>
       </c>
       <c r="D10">
-        <v>0.9269246808605827</v>
+        <v>1.02614595743701</v>
       </c>
       <c r="E10">
-        <v>0.9417782225331117</v>
+        <v>1.018873061936417</v>
       </c>
       <c r="F10">
-        <v>0.8951288009691214</v>
+        <v>1.030926909139105</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.012791541212345</v>
+        <v>1.024094883258631</v>
       </c>
       <c r="J10">
-        <v>0.9547437220398001</v>
+        <v>1.023849264308511</v>
       </c>
       <c r="K10">
-        <v>0.9427518055551698</v>
+        <v>1.029627136787867</v>
       </c>
       <c r="L10">
-        <v>0.9572847610624833</v>
+        <v>1.02238099023734</v>
       </c>
       <c r="M10">
-        <v>0.9116902984869901</v>
+        <v>1.034390731731472</v>
       </c>
       <c r="N10">
-        <v>0.9892814145684635</v>
+        <v>1.012028559341924</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9136386431641188</v>
+        <v>1.016456224024171</v>
       </c>
       <c r="D11">
-        <v>0.9160868853896652</v>
+        <v>1.025179291258633</v>
       </c>
       <c r="E11">
-        <v>0.9340002117717719</v>
+        <v>1.018080383656476</v>
       </c>
       <c r="F11">
-        <v>0.8786961521036902</v>
+        <v>1.029706343215077</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00723922778218</v>
+        <v>1.023910287849645</v>
       </c>
       <c r="J11">
-        <v>0.9471044510914824</v>
+        <v>1.023160711694576</v>
       </c>
       <c r="K11">
-        <v>0.9327860456574655</v>
+        <v>1.028786978036289</v>
       </c>
       <c r="L11">
-        <v>0.9502842075606915</v>
+        <v>1.021715214729545</v>
       </c>
       <c r="M11">
-        <v>0.8963361004735145</v>
+        <v>1.033296936294683</v>
       </c>
       <c r="N11">
-        <v>0.9867711026345876</v>
+        <v>1.011801943308702</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9097386799490387</v>
+        <v>1.016109344898492</v>
       </c>
       <c r="D12">
-        <v>0.9115733083334721</v>
+        <v>1.024818226169545</v>
       </c>
       <c r="E12">
-        <v>0.9307937902611816</v>
+        <v>1.017784800890036</v>
       </c>
       <c r="F12">
-        <v>0.8717649374883368</v>
+        <v>1.02924926023089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.00486656122136</v>
+        <v>1.023839749727162</v>
       </c>
       <c r="J12">
-        <v>0.9439233554823421</v>
+        <v>1.022903482341722</v>
       </c>
       <c r="K12">
-        <v>0.9286162331461373</v>
+        <v>1.028472822259271</v>
       </c>
       <c r="L12">
-        <v>0.9473788858068048</v>
+        <v>1.021466672755369</v>
       </c>
       <c r="M12">
-        <v>0.8898438455372432</v>
+        <v>1.032886884954315</v>
       </c>
       <c r="N12">
-        <v>0.9857260861179989</v>
+        <v>1.011717282197749</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9105968426090639</v>
+        <v>1.016183816478498</v>
       </c>
       <c r="D13">
-        <v>0.9125691711378918</v>
+        <v>1.024895767102429</v>
       </c>
       <c r="E13">
-        <v>0.9314995407814899</v>
+        <v>1.017848256710779</v>
       </c>
       <c r="F13">
-        <v>0.8732988079683963</v>
+        <v>1.029347475049018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.005393156727805</v>
+        <v>1.02385496987307</v>
       </c>
       <c r="J13">
-        <v>0.9446251943316366</v>
+        <v>1.022958725896506</v>
       </c>
       <c r="K13">
-        <v>0.9295372558464472</v>
+        <v>1.028540304628843</v>
       </c>
       <c r="L13">
-        <v>0.9480193739800031</v>
+        <v>1.021520042519129</v>
       </c>
       <c r="M13">
-        <v>0.891281389841283</v>
+        <v>1.032975013829086</v>
       </c>
       <c r="N13">
-        <v>0.985956629560058</v>
+        <v>1.011735464427006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.913325526700468</v>
+        <v>1.016427580065974</v>
       </c>
       <c r="D14">
-        <v>0.9157256392978982</v>
+        <v>1.025149486580665</v>
       </c>
       <c r="E14">
-        <v>0.9337428587764284</v>
+        <v>1.01805597423744</v>
       </c>
       <c r="F14">
-        <v>0.8781433573218445</v>
+        <v>1.029668636666067</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.007050651006145</v>
+        <v>1.023904497457982</v>
       </c>
       <c r="J14">
-        <v>0.9468498390830157</v>
+        <v>1.023139479191584</v>
       </c>
       <c r="K14">
-        <v>0.9324527414302597</v>
+        <v>1.028761052541878</v>
       </c>
       <c r="L14">
-        <v>0.950051452246671</v>
+        <v>1.021694695680743</v>
       </c>
       <c r="M14">
-        <v>0.895818661454063</v>
+        <v>1.033263118529851</v>
       </c>
       <c r="N14">
-        <v>0.9866874534712019</v>
+        <v>1.011794955159052</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9149489867200642</v>
+        <v>1.016577581569838</v>
       </c>
       <c r="D15">
-        <v>0.9175965512808797</v>
+        <v>1.025305545024378</v>
       </c>
       <c r="E15">
-        <v>0.9350770539486472</v>
+        <v>1.018183803125525</v>
       </c>
       <c r="F15">
-        <v>0.8810026979338711</v>
+        <v>1.029866021303698</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.008024831262939</v>
+        <v>1.023934751322284</v>
       </c>
       <c r="J15">
-        <v>0.9481685067523506</v>
+        <v>1.023250651600134</v>
       </c>
       <c r="K15">
-        <v>0.9341781434823077</v>
+        <v>1.028896785415034</v>
       </c>
       <c r="L15">
-        <v>0.9512573239164122</v>
+        <v>1.021802139759071</v>
       </c>
       <c r="M15">
-        <v>0.8984944759503384</v>
+        <v>1.033440128318758</v>
       </c>
       <c r="N15">
-        <v>0.9871206959293064</v>
+        <v>1.011831544710145</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9236943269124444</v>
+        <v>1.017447788789317</v>
       </c>
       <c r="D16">
-        <v>0.9275899780026361</v>
+        <v>1.026209833261007</v>
       </c>
       <c r="E16">
-        <v>0.9422592231097473</v>
+        <v>1.0189255099842</v>
       </c>
       <c r="F16">
-        <v>0.8961282286376895</v>
+        <v>1.031007397311913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.013125799103055</v>
+        <v>1.024106858755466</v>
       </c>
       <c r="J16">
-        <v>0.9552126948059398</v>
+        <v>1.023894756622525</v>
       </c>
       <c r="K16">
-        <v>0.9433614809308253</v>
+        <v>1.029682605244051</v>
       </c>
       <c r="L16">
-        <v>0.9577155815919839</v>
+        <v>1.022425002571237</v>
       </c>
       <c r="M16">
-        <v>0.9126224148213858</v>
+        <v>1.034462798444366</v>
       </c>
       <c r="N16">
-        <v>0.989435554534863</v>
+        <v>1.012043531473145</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9286936064782702</v>
+        <v>1.017991147611956</v>
       </c>
       <c r="D17">
-        <v>0.9332428290218235</v>
+        <v>1.026773543402717</v>
       </c>
       <c r="E17">
-        <v>0.9463622499845925</v>
+        <v>1.019388747176962</v>
       </c>
       <c r="F17">
-        <v>0.9045781186938469</v>
+        <v>1.031716809770873</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.015935347234478</v>
+        <v>1.024211322713639</v>
       </c>
       <c r="J17">
-        <v>0.9591974201713511</v>
+        <v>1.024296196411985</v>
       </c>
       <c r="K17">
-        <v>0.9485321740831902</v>
+        <v>1.030171856620046</v>
       </c>
       <c r="L17">
-        <v>0.9613809824027807</v>
+        <v>1.022813518900808</v>
       </c>
       <c r="M17">
-        <v>0.9204952212226057</v>
+        <v>1.035097645363481</v>
       </c>
       <c r="N17">
-        <v>0.9907453805391198</v>
+        <v>1.012175649190447</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9314716766208248</v>
+        <v>1.018307188787927</v>
       </c>
       <c r="D18">
-        <v>0.9363665529670893</v>
+        <v>1.027101087543604</v>
       </c>
       <c r="E18">
-        <v>0.9486417690176117</v>
+        <v>1.019658227149983</v>
       </c>
       <c r="F18">
-        <v>0.9092157903649497</v>
+        <v>1.032128260482032</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.017464403869283</v>
+        <v>1.024271000645321</v>
       </c>
       <c r="J18">
-        <v>0.9613992904939874</v>
+        <v>1.024529424630834</v>
       </c>
       <c r="K18">
-        <v>0.951382186641603</v>
+        <v>1.030455916774984</v>
       </c>
       <c r="L18">
-        <v>0.9634100888208966</v>
+        <v>1.023039352743877</v>
       </c>
       <c r="M18">
-        <v>0.9248100263825572</v>
+        <v>1.035465564514944</v>
       </c>
       <c r="N18">
-        <v>0.9914692677130301</v>
+        <v>1.012252405589111</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9323981178379448</v>
+        <v>1.018414800471183</v>
       </c>
       <c r="D19">
-        <v>0.9374055740535728</v>
+        <v>1.027212559310127</v>
       </c>
       <c r="E19">
-        <v>0.9494018957482775</v>
+        <v>1.019749991742069</v>
       </c>
       <c r="F19">
-        <v>0.9107534696677284</v>
+        <v>1.032268159920545</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017969285943452</v>
+        <v>1.024291137034495</v>
       </c>
       <c r="J19">
-        <v>0.9621316640952087</v>
+        <v>1.02460879336313</v>
       </c>
       <c r="K19">
-        <v>0.952329025226507</v>
+        <v>1.030552552505006</v>
       </c>
       <c r="L19">
-        <v>0.9640855762945627</v>
+        <v>1.023116224466216</v>
       </c>
       <c r="M19">
-        <v>0.92623968158546</v>
+        <v>1.035590614143298</v>
       </c>
       <c r="N19">
-        <v>0.991710059178195</v>
+        <v>1.012278525960825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9281721571845066</v>
+        <v>1.017932942713813</v>
       </c>
       <c r="D20">
-        <v>0.9326551289843219</v>
+        <v>1.026713193078419</v>
       </c>
       <c r="E20">
-        <v>0.9459343458056023</v>
+        <v>1.01933912070118</v>
       </c>
       <c r="F20">
-        <v>0.9037030854266129</v>
+        <v>1.03164093876303</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.015645798916677</v>
+        <v>1.024200244555064</v>
       </c>
       <c r="J20">
-        <v>0.9587831514535105</v>
+        <v>1.024253221572478</v>
       </c>
       <c r="K20">
-        <v>0.9479953938267208</v>
+        <v>1.030119500531731</v>
       </c>
       <c r="L20">
-        <v>0.9609995104010439</v>
+        <v>1.022771915746195</v>
       </c>
       <c r="M20">
-        <v>0.9196806152029171</v>
+        <v>1.035029778515272</v>
       </c>
       <c r="N20">
-        <v>0.9906091938263861</v>
+        <v>1.012161505885759</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9125345753293246</v>
+        <v>1.016355837255693</v>
       </c>
       <c r="D21">
-        <v>0.9148122396478389</v>
+        <v>1.025074828108427</v>
       </c>
       <c r="E21">
-        <v>0.9330927093514647</v>
+        <v>1.017994838468746</v>
       </c>
       <c r="F21">
-        <v>0.8767441333946447</v>
+        <v>1.029574165529401</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.006572819629666</v>
+        <v>1.023889967371667</v>
       </c>
       <c r="J21">
-        <v>0.9462060688453771</v>
+        <v>1.023086292663301</v>
       </c>
       <c r="K21">
-        <v>0.931609661442007</v>
+        <v>1.028696105599694</v>
       </c>
       <c r="L21">
-        <v>0.9494631119740405</v>
+        <v>1.021643299200488</v>
       </c>
       <c r="M21">
-        <v>0.894508660982873</v>
+        <v>1.033178383364721</v>
       </c>
       <c r="N21">
-        <v>0.9864759572593507</v>
+        <v>1.01177745010657</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9002199568464164</v>
+        <v>1.015356008737945</v>
       </c>
       <c r="D22">
-        <v>0.9004178129652486</v>
+        <v>1.024033118204998</v>
       </c>
       <c r="E22">
-        <v>0.9229563138065559</v>
+        <v>1.017142986606275</v>
       </c>
       <c r="F22">
-        <v>0.8543972999284611</v>
+        <v>1.028253201560738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9988447184494924</v>
+        <v>1.023683470078486</v>
       </c>
       <c r="J22">
-        <v>0.9360629319947414</v>
+        <v>1.022344077169121</v>
       </c>
       <c r="K22">
-        <v>0.9182587016881415</v>
+        <v>1.027789087159868</v>
       </c>
       <c r="L22">
-        <v>0.9402258146852894</v>
+        <v>1.020926486833377</v>
       </c>
       <c r="M22">
-        <v>0.8735342125488875</v>
+        <v>1.03199251065133</v>
       </c>
       <c r="N22">
-        <v>0.9831447277800831</v>
+        <v>1.011533163380818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9070975923021825</v>
+        <v>1.015886828476575</v>
       </c>
       <c r="D23">
-        <v>0.9084986050220493</v>
+        <v>1.02458646171701</v>
       </c>
       <c r="E23">
-        <v>0.9286209888282394</v>
+        <v>1.017595208361077</v>
       </c>
       <c r="F23">
-        <v>0.8670124213968755</v>
+        <v>1.028955529818225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003229519845124</v>
+        <v>1.023794025947107</v>
       </c>
       <c r="J23">
-        <v>0.9417565635635993</v>
+        <v>1.022738356804889</v>
       </c>
       <c r="K23">
-        <v>0.9257689402560811</v>
+        <v>1.028271071981189</v>
       </c>
       <c r="L23">
-        <v>0.9454033400758324</v>
+        <v>1.021307174156177</v>
       </c>
       <c r="M23">
-        <v>0.8853868319230609</v>
+        <v>1.03262325417477</v>
       </c>
       <c r="N23">
-        <v>0.9850143881528532</v>
+        <v>1.011662934394434</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9284081954224155</v>
+        <v>1.017959245753233</v>
       </c>
       <c r="D24">
-        <v>0.932921210484548</v>
+        <v>1.026740466679049</v>
       </c>
       <c r="E24">
-        <v>0.9461280415916086</v>
+        <v>1.01936154698837</v>
       </c>
       <c r="F24">
-        <v>0.9040993557652007</v>
+        <v>1.031675228825562</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.015776965359099</v>
+        <v>1.024205254172568</v>
       </c>
       <c r="J24">
-        <v>0.9589707120462488</v>
+        <v>1.024272642909068</v>
       </c>
       <c r="K24">
-        <v>0.9482384440408611</v>
+        <v>1.030143162046429</v>
       </c>
       <c r="L24">
-        <v>0.9611722107529268</v>
+        <v>1.022790716833681</v>
       </c>
       <c r="M24">
-        <v>0.9200495394842663</v>
+        <v>1.035060451962476</v>
       </c>
       <c r="N24">
-        <v>0.9906708521714997</v>
+        <v>1.012167897580347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9475475015676621</v>
+        <v>1.020329321364168</v>
       </c>
       <c r="D25">
-        <v>0.9542170763052639</v>
+        <v>1.029190822129955</v>
       </c>
       <c r="E25">
-        <v>0.9618311372937345</v>
+        <v>1.021383180087203</v>
       </c>
       <c r="F25">
-        <v>0.9353017622107157</v>
+        <v>1.034739785244915</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025875512200861</v>
+        <v>1.024633311541331</v>
       </c>
       <c r="J25">
-        <v>0.9739789003327772</v>
+        <v>1.026016901901067</v>
       </c>
       <c r="K25">
-        <v>0.967570280787175</v>
+        <v>1.032264268079562</v>
       </c>
       <c r="L25">
-        <v>0.9750523591962277</v>
+        <v>1.024481717471827</v>
       </c>
       <c r="M25">
-        <v>0.9489949669529442</v>
+        <v>1.037795650214143</v>
       </c>
       <c r="N25">
-        <v>0.995606259364253</v>
+        <v>1.012741917646915</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022192629141769</v>
+        <v>0.9604870925248478</v>
       </c>
       <c r="D2">
-        <v>1.031106801433389</v>
+        <v>0.9683306286423773</v>
       </c>
       <c r="E2">
-        <v>1.022973820019877</v>
+        <v>0.9724534925835228</v>
       </c>
       <c r="F2">
-        <v>1.037112412676056</v>
+        <v>0.9554411600657915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024935622675778</v>
+        <v>1.032109792327945</v>
       </c>
       <c r="J2">
-        <v>1.027379847277369</v>
+        <v>0.9839174637790513</v>
       </c>
       <c r="K2">
-        <v>1.033915877480283</v>
+        <v>0.9802495400313884</v>
       </c>
       <c r="L2">
-        <v>1.025806623784877</v>
+        <v>0.9843104183985228</v>
       </c>
       <c r="M2">
-        <v>1.039904227029816</v>
+        <v>0.9675582712130912</v>
       </c>
       <c r="N2">
-        <v>1.013190409921538</v>
+        <v>0.9988760679091908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023530341893124</v>
+        <v>0.9689828453495758</v>
       </c>
       <c r="D3">
-        <v>1.032476280520569</v>
+        <v>0.9774830483188207</v>
       </c>
       <c r="E3">
-        <v>1.024116507424092</v>
+        <v>0.9794347431162292</v>
       </c>
       <c r="F3">
-        <v>1.038794557677048</v>
+        <v>0.9682740487026884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025132670580908</v>
+        <v>1.03593492270235</v>
       </c>
       <c r="J3">
-        <v>1.02835348688739</v>
+        <v>0.9903563300255359</v>
       </c>
       <c r="K3">
-        <v>1.035092346893526</v>
+        <v>0.9884123822355163</v>
       </c>
       <c r="L3">
-        <v>1.026755174863784</v>
+        <v>0.9903377032957569</v>
       </c>
       <c r="M3">
-        <v>1.041393803183955</v>
+        <v>0.9793296350242606</v>
       </c>
       <c r="N3">
-        <v>1.013510772564229</v>
+        <v>1.000994981728073</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024389037690743</v>
+        <v>0.974150665233175</v>
       </c>
       <c r="D4">
-        <v>1.033352565983874</v>
+        <v>0.983007293404359</v>
       </c>
       <c r="E4">
-        <v>1.024850348983022</v>
+        <v>0.9836849864170332</v>
       </c>
       <c r="F4">
-        <v>1.039864524779623</v>
+        <v>0.9759316186458427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025249844857602</v>
+        <v>1.038151943118532</v>
       </c>
       <c r="J4">
-        <v>1.028976228645368</v>
+        <v>0.9942395376854881</v>
       </c>
       <c r="K4">
-        <v>1.035843244259318</v>
+        <v>0.9933152262675251</v>
       </c>
       <c r="L4">
-        <v>1.027362840909987</v>
+        <v>0.9939843909986434</v>
       </c>
       <c r="M4">
-        <v>1.042338755614989</v>
+        <v>0.9863294779659582</v>
       </c>
       <c r="N4">
-        <v>1.013715665731523</v>
+        <v>1.00227303166624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024748402945398</v>
+        <v>0.9762538652990634</v>
       </c>
       <c r="D5">
-        <v>1.033718620325351</v>
+        <v>0.9852462773764969</v>
       </c>
       <c r="E5">
-        <v>1.025157542544762</v>
+        <v>0.9854156675179293</v>
       </c>
       <c r="F5">
-        <v>1.040309951001723</v>
+        <v>0.9790159166722286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025296640014843</v>
+        <v>1.039029363596156</v>
       </c>
       <c r="J5">
-        <v>1.029236306366369</v>
+        <v>0.9958125998028254</v>
       </c>
       <c r="K5">
-        <v>1.03615646477105</v>
+        <v>0.9952969265487205</v>
       </c>
       <c r="L5">
-        <v>1.027616856329176</v>
+        <v>0.995464249195559</v>
       </c>
       <c r="M5">
-        <v>1.042731524861771</v>
+        <v>0.9891432295860527</v>
       </c>
       <c r="N5">
-        <v>1.013801233196304</v>
+        <v>1.0027907897146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02480864690146</v>
+        <v>0.9766031716649596</v>
       </c>
       <c r="D6">
-        <v>1.033779946148541</v>
+        <v>0.9856176148735702</v>
       </c>
       <c r="E6">
-        <v>1.0252090451266</v>
+        <v>0.9857031593336355</v>
       </c>
       <c r="F6">
-        <v>1.040384483809439</v>
+        <v>0.9795263571108145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.025304352792473</v>
+        <v>1.039173659796262</v>
       </c>
       <c r="J6">
-        <v>1.02927987400535</v>
+        <v>0.9960734448562969</v>
       </c>
       <c r="K6">
-        <v>1.036208912443006</v>
+        <v>0.9956252822090258</v>
       </c>
       <c r="L6">
-        <v>1.027659422189342</v>
+        <v>0.9957097879391053</v>
       </c>
       <c r="M6">
-        <v>1.04279721034195</v>
+        <v>0.9896085683700561</v>
       </c>
       <c r="N6">
-        <v>1.013815567104619</v>
+        <v>1.002876645749691</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024393845927135</v>
+        <v>0.9741790298319669</v>
       </c>
       <c r="D7">
-        <v>1.033357466367222</v>
+        <v>0.9830375249522627</v>
       </c>
       <c r="E7">
-        <v>1.024854458858047</v>
+        <v>0.9837083233951378</v>
       </c>
       <c r="F7">
-        <v>1.039870493776747</v>
+        <v>0.9759733388580856</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025250479812058</v>
+        <v>1.038163873678482</v>
       </c>
       <c r="J7">
-        <v>1.028979710563991</v>
+        <v>0.9942607809945661</v>
       </c>
       <c r="K7">
-        <v>1.035847439150586</v>
+        <v>0.9933420051190947</v>
       </c>
       <c r="L7">
-        <v>1.027366240743488</v>
+        <v>0.9940043654684506</v>
       </c>
       <c r="M7">
-        <v>1.042344021406739</v>
+        <v>0.986367560870671</v>
       </c>
       <c r="N7">
-        <v>1.013716811318993</v>
+        <v>1.002280023592243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022646155185633</v>
+        <v>0.9634330224602514</v>
       </c>
       <c r="D8">
-        <v>1.031571679743152</v>
+        <v>0.971514288712084</v>
       </c>
       <c r="E8">
-        <v>1.023361156488123</v>
+        <v>0.9748735038254743</v>
       </c>
       <c r="F8">
-        <v>1.037684755112653</v>
+        <v>0.9599254875149522</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025004359667409</v>
+        <v>1.033460904717008</v>
       </c>
       <c r="J8">
-        <v>1.027710408898115</v>
+        <v>0.9861578769823668</v>
       </c>
       <c r="K8">
-        <v>1.034315629477689</v>
+        <v>0.9830944609658433</v>
       </c>
       <c r="L8">
-        <v>1.026128465696659</v>
+        <v>0.9864049407420111</v>
       </c>
       <c r="M8">
-        <v>1.040411573120449</v>
+        <v>0.9716771215510467</v>
       </c>
       <c r="N8">
-        <v>1.013299179010472</v>
+        <v>0.9996133066044586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019512751126477</v>
+        <v>0.9413630894703077</v>
       </c>
       <c r="D9">
-        <v>1.028348222293584</v>
+        <v>0.9473935516366642</v>
       </c>
       <c r="E9">
-        <v>1.020686460847832</v>
+        <v>0.9567568986730387</v>
       </c>
       <c r="F9">
-        <v>1.033689666529277</v>
+        <v>0.9254123413499703</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024491147364305</v>
+        <v>1.022726985318916</v>
       </c>
       <c r="J9">
-        <v>1.025417248903161</v>
+        <v>0.9691710749449678</v>
       </c>
       <c r="K9">
-        <v>1.031535964875113</v>
+        <v>0.9614019782748455</v>
       </c>
       <c r="L9">
-        <v>1.023899816157457</v>
+        <v>0.9705928222688944</v>
       </c>
       <c r="M9">
-        <v>1.036859799376705</v>
+        <v>0.9398437626749491</v>
       </c>
       <c r="N9">
-        <v>1.012544583507632</v>
+        <v>0.994024884445015</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01738626277433</v>
+        <v>0.9231083812696166</v>
       </c>
       <c r="D10">
-        <v>1.02614595743701</v>
+        <v>0.926924680860582</v>
       </c>
       <c r="E10">
-        <v>1.018873061936417</v>
+        <v>0.9417782225331112</v>
       </c>
       <c r="F10">
-        <v>1.030926909139105</v>
+        <v>0.8951288009691205</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024094883258631</v>
+        <v>1.012791541212345</v>
       </c>
       <c r="J10">
-        <v>1.023849264308511</v>
+        <v>0.9547437220397995</v>
       </c>
       <c r="K10">
-        <v>1.029627136787867</v>
+        <v>0.942751805555169</v>
       </c>
       <c r="L10">
-        <v>1.02238099023734</v>
+        <v>0.9572847610624827</v>
       </c>
       <c r="M10">
-        <v>1.034390731731472</v>
+        <v>0.9116902984869892</v>
       </c>
       <c r="N10">
-        <v>1.012028559341924</v>
+        <v>0.9892814145684633</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016456224024171</v>
+        <v>0.9136386431641169</v>
       </c>
       <c r="D11">
-        <v>1.025179291258633</v>
+        <v>0.9160868853896633</v>
       </c>
       <c r="E11">
-        <v>1.018080383656476</v>
+        <v>0.9340002117717702</v>
       </c>
       <c r="F11">
-        <v>1.029706343215077</v>
+        <v>0.878696152103688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023910287849645</v>
+        <v>1.00723922778218</v>
       </c>
       <c r="J11">
-        <v>1.023160711694576</v>
+        <v>0.9471044510914808</v>
       </c>
       <c r="K11">
-        <v>1.028786978036289</v>
+        <v>0.9327860456574637</v>
       </c>
       <c r="L11">
-        <v>1.021715214729545</v>
+        <v>0.95028420756069</v>
       </c>
       <c r="M11">
-        <v>1.033296936294683</v>
+        <v>0.8963361004735123</v>
       </c>
       <c r="N11">
-        <v>1.011801943308702</v>
+        <v>0.9867711026345869</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016109344898492</v>
+        <v>0.909738679949038</v>
       </c>
       <c r="D12">
-        <v>1.024818226169545</v>
+        <v>0.9115733083334711</v>
       </c>
       <c r="E12">
-        <v>1.017784800890036</v>
+        <v>0.9307937902611808</v>
       </c>
       <c r="F12">
-        <v>1.02924926023089</v>
+        <v>0.8717649374883356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023839749727162</v>
+        <v>1.00486656122136</v>
       </c>
       <c r="J12">
-        <v>1.022903482341722</v>
+        <v>0.9439233554823413</v>
       </c>
       <c r="K12">
-        <v>1.028472822259271</v>
+        <v>0.9286162331461364</v>
       </c>
       <c r="L12">
-        <v>1.021466672755369</v>
+        <v>0.947378885806804</v>
       </c>
       <c r="M12">
-        <v>1.032886884954315</v>
+        <v>0.8898438455372421</v>
       </c>
       <c r="N12">
-        <v>1.011717282197749</v>
+        <v>0.9857260861179986</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016183816478498</v>
+        <v>0.9105968426090635</v>
       </c>
       <c r="D13">
-        <v>1.024895767102429</v>
+        <v>0.9125691711378914</v>
       </c>
       <c r="E13">
-        <v>1.017848256710779</v>
+        <v>0.9314995407814894</v>
       </c>
       <c r="F13">
-        <v>1.029347475049018</v>
+        <v>0.8732988079683957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02385496987307</v>
+        <v>1.005393156727804</v>
       </c>
       <c r="J13">
-        <v>1.022958725896506</v>
+        <v>0.9446251943316362</v>
       </c>
       <c r="K13">
-        <v>1.028540304628843</v>
+        <v>0.9295372558464468</v>
       </c>
       <c r="L13">
-        <v>1.021520042519129</v>
+        <v>0.9480193739800027</v>
       </c>
       <c r="M13">
-        <v>1.032975013829086</v>
+        <v>0.8912813898412827</v>
       </c>
       <c r="N13">
-        <v>1.011735464427006</v>
+        <v>0.985956629560058</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016427580065974</v>
+        <v>0.9133255267004678</v>
       </c>
       <c r="D14">
-        <v>1.025149486580665</v>
+        <v>0.9157256392978977</v>
       </c>
       <c r="E14">
-        <v>1.01805597423744</v>
+        <v>0.9337428587764279</v>
       </c>
       <c r="F14">
-        <v>1.029668636666067</v>
+        <v>0.8781433573218445</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023904497457982</v>
+        <v>1.007050651006145</v>
       </c>
       <c r="J14">
-        <v>1.023139479191584</v>
+        <v>0.9468498390830155</v>
       </c>
       <c r="K14">
-        <v>1.028761052541878</v>
+        <v>0.9324527414302596</v>
       </c>
       <c r="L14">
-        <v>1.021694695680743</v>
+        <v>0.9500514522466708</v>
       </c>
       <c r="M14">
-        <v>1.033263118529851</v>
+        <v>0.895818661454063</v>
       </c>
       <c r="N14">
-        <v>1.011794955159052</v>
+        <v>0.9866874534712019</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016577581569838</v>
+        <v>0.9149489867200638</v>
       </c>
       <c r="D15">
-        <v>1.025305545024378</v>
+        <v>0.9175965512808789</v>
       </c>
       <c r="E15">
-        <v>1.018183803125525</v>
+        <v>0.9350770539486467</v>
       </c>
       <c r="F15">
-        <v>1.029866021303698</v>
+        <v>0.8810026979338702</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023934751322284</v>
+        <v>1.008024831262939</v>
       </c>
       <c r="J15">
-        <v>1.023250651600134</v>
+        <v>0.9481685067523502</v>
       </c>
       <c r="K15">
-        <v>1.028896785415034</v>
+        <v>0.9341781434823071</v>
       </c>
       <c r="L15">
-        <v>1.021802139759071</v>
+        <v>0.9512573239164117</v>
       </c>
       <c r="M15">
-        <v>1.033440128318758</v>
+        <v>0.8984944759503376</v>
       </c>
       <c r="N15">
-        <v>1.011831544710145</v>
+        <v>0.9871206959293063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017447788789317</v>
+        <v>0.9236943269124442</v>
       </c>
       <c r="D16">
-        <v>1.026209833261007</v>
+        <v>0.927589978002636</v>
       </c>
       <c r="E16">
-        <v>1.0189255099842</v>
+        <v>0.9422592231097473</v>
       </c>
       <c r="F16">
-        <v>1.031007397311913</v>
+        <v>0.8961282286376895</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024106858755466</v>
+        <v>1.013125799103055</v>
       </c>
       <c r="J16">
-        <v>1.023894756622525</v>
+        <v>0.9552126948059397</v>
       </c>
       <c r="K16">
-        <v>1.029682605244051</v>
+        <v>0.9433614809308252</v>
       </c>
       <c r="L16">
-        <v>1.022425002571237</v>
+        <v>0.9577155815919838</v>
       </c>
       <c r="M16">
-        <v>1.034462798444366</v>
+        <v>0.9126224148213858</v>
       </c>
       <c r="N16">
-        <v>1.012043531473145</v>
+        <v>0.989435554534863</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.017991147611956</v>
+        <v>0.9286936064782711</v>
       </c>
       <c r="D17">
-        <v>1.026773543402717</v>
+        <v>0.9332428290218246</v>
       </c>
       <c r="E17">
-        <v>1.019388747176962</v>
+        <v>0.9463622499845933</v>
       </c>
       <c r="F17">
-        <v>1.031716809770873</v>
+        <v>0.9045781186938481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024211322713639</v>
+        <v>1.015935347234478</v>
       </c>
       <c r="J17">
-        <v>1.024296196411985</v>
+        <v>0.9591974201713519</v>
       </c>
       <c r="K17">
-        <v>1.030171856620046</v>
+        <v>0.9485321740831911</v>
       </c>
       <c r="L17">
-        <v>1.022813518900808</v>
+        <v>0.9613809824027817</v>
       </c>
       <c r="M17">
-        <v>1.035097645363481</v>
+        <v>0.9204952212226069</v>
       </c>
       <c r="N17">
-        <v>1.012175649190447</v>
+        <v>0.9907453805391201</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018307188787927</v>
+        <v>0.9314716766208253</v>
       </c>
       <c r="D18">
-        <v>1.027101087543604</v>
+        <v>0.9363665529670893</v>
       </c>
       <c r="E18">
-        <v>1.019658227149983</v>
+        <v>0.9486417690176119</v>
       </c>
       <c r="F18">
-        <v>1.032128260482032</v>
+        <v>0.9092157903649498</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024271000645321</v>
+        <v>1.017464403869283</v>
       </c>
       <c r="J18">
-        <v>1.024529424630834</v>
+        <v>0.9613992904939875</v>
       </c>
       <c r="K18">
-        <v>1.030455916774984</v>
+        <v>0.951382186641603</v>
       </c>
       <c r="L18">
-        <v>1.023039352743877</v>
+        <v>0.9634100888208967</v>
       </c>
       <c r="M18">
-        <v>1.035465564514944</v>
+        <v>0.9248100263825573</v>
       </c>
       <c r="N18">
-        <v>1.012252405589111</v>
+        <v>0.9914692677130302</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018414800471183</v>
+        <v>0.932398117837945</v>
       </c>
       <c r="D19">
-        <v>1.027212559310127</v>
+        <v>0.9374055740535731</v>
       </c>
       <c r="E19">
-        <v>1.019749991742069</v>
+        <v>0.9494018957482778</v>
       </c>
       <c r="F19">
-        <v>1.032268159920545</v>
+        <v>0.9107534696677286</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024291137034495</v>
+        <v>1.017969285943452</v>
       </c>
       <c r="J19">
-        <v>1.02460879336313</v>
+        <v>0.9621316640952089</v>
       </c>
       <c r="K19">
-        <v>1.030552552505006</v>
+        <v>0.9523290252265072</v>
       </c>
       <c r="L19">
-        <v>1.023116224466216</v>
+        <v>0.964085576294563</v>
       </c>
       <c r="M19">
-        <v>1.035590614143298</v>
+        <v>0.9262396815854602</v>
       </c>
       <c r="N19">
-        <v>1.012278525960825</v>
+        <v>0.9917100591781952</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017932942713813</v>
+        <v>0.9281721571845062</v>
       </c>
       <c r="D20">
-        <v>1.026713193078419</v>
+        <v>0.9326551289843216</v>
       </c>
       <c r="E20">
-        <v>1.01933912070118</v>
+        <v>0.9459343458056018</v>
       </c>
       <c r="F20">
-        <v>1.03164093876303</v>
+        <v>0.9037030854266125</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024200244555064</v>
+        <v>1.015645798916677</v>
       </c>
       <c r="J20">
-        <v>1.024253221572478</v>
+        <v>0.95878315145351</v>
       </c>
       <c r="K20">
-        <v>1.030119500531731</v>
+        <v>0.9479953938267203</v>
       </c>
       <c r="L20">
-        <v>1.022771915746195</v>
+        <v>0.9609995104010433</v>
       </c>
       <c r="M20">
-        <v>1.035029778515272</v>
+        <v>0.9196806152029168</v>
       </c>
       <c r="N20">
-        <v>1.012161505885759</v>
+        <v>0.9906091938263859</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016355837255693</v>
+        <v>0.912534575329325</v>
       </c>
       <c r="D21">
-        <v>1.025074828108427</v>
+        <v>0.9148122396478398</v>
       </c>
       <c r="E21">
-        <v>1.017994838468746</v>
+        <v>0.9330927093514654</v>
       </c>
       <c r="F21">
-        <v>1.029574165529401</v>
+        <v>0.8767441333946452</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023889967371667</v>
+        <v>1.006572819629666</v>
       </c>
       <c r="J21">
-        <v>1.023086292663301</v>
+        <v>0.9462060688453776</v>
       </c>
       <c r="K21">
-        <v>1.028696105599694</v>
+        <v>0.9316096614420076</v>
       </c>
       <c r="L21">
-        <v>1.021643299200488</v>
+        <v>0.9494631119740411</v>
       </c>
       <c r="M21">
-        <v>1.033178383364721</v>
+        <v>0.8945086609828735</v>
       </c>
       <c r="N21">
-        <v>1.01177745010657</v>
+        <v>0.9864759572593508</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015356008737945</v>
+        <v>0.9002199568464179</v>
       </c>
       <c r="D22">
-        <v>1.024033118204998</v>
+        <v>0.9004178129652504</v>
       </c>
       <c r="E22">
-        <v>1.017142986606275</v>
+        <v>0.9229563138065574</v>
       </c>
       <c r="F22">
-        <v>1.028253201560738</v>
+        <v>0.8543972999284635</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023683470078486</v>
+        <v>0.998844718449493</v>
       </c>
       <c r="J22">
-        <v>1.022344077169121</v>
+        <v>0.936062931994743</v>
       </c>
       <c r="K22">
-        <v>1.027789087159868</v>
+        <v>0.9182587016881434</v>
       </c>
       <c r="L22">
-        <v>1.020926486833377</v>
+        <v>0.9402258146852909</v>
       </c>
       <c r="M22">
-        <v>1.03199251065133</v>
+        <v>0.8735342125488899</v>
       </c>
       <c r="N22">
-        <v>1.011533163380818</v>
+        <v>0.9831447277800838</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015886828476575</v>
+        <v>0.9070975923021811</v>
       </c>
       <c r="D23">
-        <v>1.02458646171701</v>
+        <v>0.908498605022048</v>
       </c>
       <c r="E23">
-        <v>1.017595208361077</v>
+        <v>0.9286209888282384</v>
       </c>
       <c r="F23">
-        <v>1.028955529818225</v>
+        <v>0.8670124213968742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023794025947107</v>
+        <v>1.003229519845124</v>
       </c>
       <c r="J23">
-        <v>1.022738356804889</v>
+        <v>0.9417565635635983</v>
       </c>
       <c r="K23">
-        <v>1.028271071981189</v>
+        <v>0.9257689402560799</v>
       </c>
       <c r="L23">
-        <v>1.021307174156177</v>
+        <v>0.9454033400758313</v>
       </c>
       <c r="M23">
-        <v>1.03262325417477</v>
+        <v>0.8853868319230596</v>
       </c>
       <c r="N23">
-        <v>1.011662934394434</v>
+        <v>0.9850143881528527</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017959245753233</v>
+        <v>0.928408195422415</v>
       </c>
       <c r="D24">
-        <v>1.026740466679049</v>
+        <v>0.9329212104845479</v>
       </c>
       <c r="E24">
-        <v>1.01936154698837</v>
+        <v>0.9461280415916082</v>
       </c>
       <c r="F24">
-        <v>1.031675228825562</v>
+        <v>0.9040993557652008</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024205254172568</v>
+        <v>1.015776965359099</v>
       </c>
       <c r="J24">
-        <v>1.024272642909068</v>
+        <v>0.9589707120462485</v>
       </c>
       <c r="K24">
-        <v>1.030143162046429</v>
+        <v>0.948238444040861</v>
       </c>
       <c r="L24">
-        <v>1.022790716833681</v>
+        <v>0.9611722107529265</v>
       </c>
       <c r="M24">
-        <v>1.035060451962476</v>
+        <v>0.9200495394842662</v>
       </c>
       <c r="N24">
-        <v>1.012167897580347</v>
+        <v>0.9906708521714996</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020329321364168</v>
+        <v>0.9475475015676615</v>
       </c>
       <c r="D25">
-        <v>1.029190822129955</v>
+        <v>0.9542170763052633</v>
       </c>
       <c r="E25">
-        <v>1.021383180087203</v>
+        <v>0.9618311372937342</v>
       </c>
       <c r="F25">
-        <v>1.034739785244915</v>
+        <v>0.9353017622107154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024633311541331</v>
+        <v>1.025875512200861</v>
       </c>
       <c r="J25">
-        <v>1.026016901901067</v>
+        <v>0.9739789003327769</v>
       </c>
       <c r="K25">
-        <v>1.032264268079562</v>
+        <v>0.9675702807871747</v>
       </c>
       <c r="L25">
-        <v>1.024481717471827</v>
+        <v>0.9750523591962273</v>
       </c>
       <c r="M25">
-        <v>1.037795650214143</v>
+        <v>0.9489949669529438</v>
       </c>
       <c r="N25">
-        <v>1.012741917646915</v>
+        <v>0.995606259364253</v>
       </c>
     </row>
   </sheetData>
